--- a/数据整理/stocks/A股/上证主板/600861-北京城乡.xlsx
+++ b/数据整理/stocks/A股/上证主板/600861-北京城乡.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600861-北京城乡.xlsx
+++ b/数据整理/stocks/A股/上证主板/600861-北京城乡.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,281 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>400032</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方主题精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9027</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011458</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1323</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011459</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0482</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002212</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实新起航灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519629</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519630</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1020,64 +804,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.99</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.16</v>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600861-北京城乡.xlsx
+++ b/数据整理/stocks/A股/上证主板/600861-北京城乡.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.99</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -515,6 +532,742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6274</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006738</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银添慧债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006739</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银添慧债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -798,7 +1551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
